--- a/Temp_dependent_params_betweenhost.xlsx
+++ b/Temp_dependent_params_betweenhost.xlsx
@@ -390,7 +390,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>0.75000712506769</v>
+        <v>3.00002850027075</v>
       </c>
       <c r="C4" t="n">
         <v>0.687012452887447</v>
@@ -401,7 +401,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>0.666673000060167</v>
+        <v>3.00002850027075</v>
       </c>
       <c r="C5" t="n">
         <v>0.788375070723415</v>
@@ -412,7 +412,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>0.583338875052648</v>
+        <v>3.00002850027075</v>
       </c>
       <c r="C6" t="n">
         <v>0.880821075975321</v>
@@ -423,7 +423,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>0.583338875052648</v>
+        <v>3.00002850027075</v>
       </c>
       <c r="C7" t="n">
         <v>0.95532157457466</v>

--- a/Temp_dependent_params_betweenhost.xlsx
+++ b/Temp_dependent_params_betweenhost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Temp</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>TB</t>
+  </si>
+  <si>
+    <t>toptshift</t>
   </si>
 </sst>
 </file>
@@ -81,6 +84,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -92,6 +98,9 @@
       <c r="C2" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -103,6 +112,9 @@
       <c r="C3" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -114,6 +126,9 @@
       <c r="C4" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -125,6 +140,9 @@
       <c r="C5" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -136,6 +154,9 @@
       <c r="C6" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -147,6 +168,9 @@
       <c r="C7" t="n">
         <v>0.9553215745746599</v>
       </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -158,6 +182,9 @@
       <c r="C8" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -169,6 +196,9 @@
       <c r="C9" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D9" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -180,6 +210,9 @@
       <c r="C10" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D10" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -191,6 +224,9 @@
       <c r="C11" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D11" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -202,6 +238,9 @@
       <c r="C12" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D12" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -213,6 +252,9 @@
       <c r="C13" t="n">
         <v>0.9553215745746599</v>
       </c>
+      <c r="D13" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -224,6 +266,9 @@
       <c r="C14" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D14" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -235,6 +280,9 @@
       <c r="C15" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D15" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -246,6 +294,9 @@
       <c r="C16" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D16" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -257,6 +308,9 @@
       <c r="C17" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D17" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -268,6 +322,9 @@
       <c r="C18" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D18" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -279,6 +336,9 @@
       <c r="C19" t="n">
         <v>0.9553215745746599</v>
       </c>
+      <c r="D19" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -290,6 +350,9 @@
       <c r="C20" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D20" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -301,6 +364,9 @@
       <c r="C21" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D21" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -312,6 +378,9 @@
       <c r="C22" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D22" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -323,6 +392,9 @@
       <c r="C23" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D23" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -334,6 +406,9 @@
       <c r="C24" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D24" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -345,6 +420,9 @@
       <c r="C25" t="n">
         <v>0.9553215745746599</v>
       </c>
+      <c r="D25" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -356,6 +434,9 @@
       <c r="C26" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D26" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -367,6 +448,9 @@
       <c r="C27" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D27" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -378,6 +462,9 @@
       <c r="C28" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D28" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -389,6 +476,9 @@
       <c r="C29" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D29" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -400,6 +490,9 @@
       <c r="C30" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D30" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -411,6 +504,9 @@
       <c r="C31" t="n">
         <v>0.9553215745746599</v>
       </c>
+      <c r="D31" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -422,6 +518,9 @@
       <c r="C32" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D32" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -433,6 +532,9 @@
       <c r="C33" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D33" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -444,6 +546,9 @@
       <c r="C34" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D34" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -455,6 +560,9 @@
       <c r="C35" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D35" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -466,6 +574,9 @@
       <c r="C36" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D36" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -477,6 +588,9 @@
       <c r="C37" t="n">
         <v>0.9553215745746599</v>
       </c>
+      <c r="D37" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -488,6 +602,9 @@
       <c r="C38" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D38" t="n">
+        <v>7.0000000000000036</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -499,6 +616,9 @@
       <c r="C39" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D39" t="n">
+        <v>7.0000000000000036</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -510,6 +630,9 @@
       <c r="C40" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D40" t="n">
+        <v>7.0000000000000036</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -521,6 +644,9 @@
       <c r="C41" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D41" t="n">
+        <v>7.0000000000000036</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -532,6 +658,9 @@
       <c r="C42" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D42" t="n">
+        <v>7.0000000000000036</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -543,6 +672,9 @@
       <c r="C43" t="n">
         <v>0.9553215745746599</v>
       </c>
+      <c r="D43" t="n">
+        <v>7.0000000000000036</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -554,6 +686,9 @@
       <c r="C44" t="n">
         <v>0.48217851808886364</v>
       </c>
+      <c r="D44" t="n">
+        <v>8.000000000000004</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -565,6 +700,9 @@
       <c r="C45" t="n">
         <v>0.5833635145723541</v>
       </c>
+      <c r="D45" t="n">
+        <v>8.000000000000004</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -576,6 +714,9 @@
       <c r="C46" t="n">
         <v>0.687012452887447</v>
       </c>
+      <c r="D46" t="n">
+        <v>8.000000000000004</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -587,6 +728,9 @@
       <c r="C47" t="n">
         <v>0.7883750707234152</v>
       </c>
+      <c r="D47" t="n">
+        <v>8.000000000000004</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -598,6 +742,9 @@
       <c r="C48" t="n">
         <v>0.8808210759753207</v>
       </c>
+      <c r="D48" t="n">
+        <v>8.000000000000004</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -608,6 +755,9 @@
       </c>
       <c r="C49" t="n">
         <v>0.9553215745746599</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8.000000000000004</v>
       </c>
     </row>
   </sheetData>
